--- a/7_mod_database/mod_database.xlsx
+++ b/7_mod_database/mod_database.xlsx
@@ -25,7 +25,7 @@
     <t>CC</t>
   </si>
   <si>
-    <t>CD</t>
+    <t>CM</t>
   </si>
   <si>
     <t>cold</t>
@@ -254,13 +254,14 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font/>
     <font>
       <sz val="11.0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -278,14 +279,17 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
@@ -522,7 +526,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -552,19 +556,19 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
@@ -579,18 +583,18 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="2">
@@ -598,7 +602,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="2">
@@ -606,7 +610,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="2">
@@ -614,7 +618,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="2">
@@ -625,7 +629,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="2">
@@ -633,7 +637,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="2">
@@ -644,7 +648,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="2">
@@ -652,7 +656,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="2">
@@ -660,7 +664,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="2">
@@ -671,7 +675,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="2">
@@ -682,7 +686,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="2">
@@ -693,7 +697,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="2">
@@ -701,7 +705,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E14" s="2">
@@ -709,7 +713,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F15" s="2">
@@ -717,7 +721,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F16" s="2">
@@ -725,7 +729,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F17" s="2">
@@ -736,7 +740,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G18" s="2">
@@ -744,7 +748,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G19" s="2">
@@ -755,7 +759,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H20" s="2">
@@ -763,7 +767,7 @@
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>45</v>
       </c>
       <c r="H21" s="2">
@@ -774,7 +778,7 @@
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>46</v>
       </c>
       <c r="H22" s="2">
@@ -785,7 +789,7 @@
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I23" s="2">
@@ -793,7 +797,7 @@
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>48</v>
       </c>
       <c r="I24" s="2">
@@ -804,7 +808,7 @@
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>49</v>
       </c>
       <c r="J25" s="2">
@@ -812,7 +816,7 @@
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="4" t="s">
         <v>50</v>
       </c>
       <c r="J26" s="2">
@@ -823,7 +827,7 @@
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>51</v>
       </c>
       <c r="J27" s="2">
@@ -834,7 +838,7 @@
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="4" t="s">
         <v>52</v>
       </c>
       <c r="J28" s="2">
@@ -845,7 +849,7 @@
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>53</v>
       </c>
       <c r="K29" s="2">
@@ -853,7 +857,7 @@
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="4" t="s">
         <v>54</v>
       </c>
       <c r="K30" s="2">
@@ -861,7 +865,7 @@
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="4" t="s">
         <v>55</v>
       </c>
       <c r="L31" s="2">
@@ -869,7 +873,7 @@
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="4" t="s">
         <v>56</v>
       </c>
       <c r="L32" s="2">
@@ -877,7 +881,7 @@
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="4" t="s">
         <v>57</v>
       </c>
       <c r="M33" s="2">
@@ -885,7 +889,7 @@
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="4" t="s">
         <v>58</v>
       </c>
       <c r="M34" s="2">
@@ -893,7 +897,7 @@
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="4" t="s">
         <v>59</v>
       </c>
       <c r="N35" s="2">
@@ -901,7 +905,7 @@
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="4" t="s">
         <v>60</v>
       </c>
       <c r="N36" s="2">
@@ -909,7 +913,7 @@
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>61</v>
       </c>
       <c r="O37" s="2">
@@ -917,7 +921,7 @@
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>62</v>
       </c>
       <c r="O38" s="2">
@@ -925,7 +929,7 @@
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="4" t="s">
         <v>63</v>
       </c>
       <c r="P39" s="2">
@@ -933,7 +937,7 @@
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="4" t="s">
         <v>64</v>
       </c>
       <c r="P40" s="2">
@@ -944,7 +948,7 @@
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="4" t="s">
         <v>65</v>
       </c>
       <c r="Q41" s="2">
@@ -952,7 +956,7 @@
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="4" t="s">
         <v>66</v>
       </c>
       <c r="Q42" s="2">
@@ -960,7 +964,7 @@
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="4" t="s">
         <v>67</v>
       </c>
       <c r="R43" s="2">
@@ -968,7 +972,7 @@
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="4" t="s">
         <v>68</v>
       </c>
       <c r="S44" s="2">
@@ -976,7 +980,7 @@
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="4" t="s">
         <v>69</v>
       </c>
       <c r="T45" s="2">
@@ -984,7 +988,7 @@
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="4" t="s">
         <v>70</v>
       </c>
       <c r="T46" s="2">
@@ -992,7 +996,7 @@
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="4" t="s">
         <v>71</v>
       </c>
       <c r="U47" s="2">
@@ -1000,7 +1004,7 @@
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="4" t="s">
         <v>72</v>
       </c>
       <c r="U48" s="2">
@@ -1008,7 +1012,7 @@
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="4" t="s">
         <v>73</v>
       </c>
       <c r="V49" s="2">
@@ -1016,7 +1020,7 @@
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="4" t="s">
         <v>74</v>
       </c>
       <c r="V50" s="2">
@@ -1024,7 +1028,7 @@
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="4" t="s">
         <v>75</v>
       </c>
       <c r="Z51" s="2">
@@ -1032,7 +1036,7 @@
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="4" t="s">
         <v>76</v>
       </c>
       <c r="Y52" s="2">
